--- a/Automation/Automations.xlsx
+++ b/Automation/Automations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Iot-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Iot-Lab\Iot-Lab\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB2829D-CB70-4507-9526-288AB07B535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C40EEE-F9EA-4BC9-A839-2957530F5244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Productie Hoog</t>
   </si>
@@ -150,13 +150,37 @@
   </si>
   <si>
     <t>Groen LED</t>
+  </si>
+  <si>
+    <t>Battery low sensors</t>
+  </si>
+  <si>
+    <t>Send notification when washer or dryer is finished (based on power consumption)</t>
+  </si>
+  <si>
+    <t>DVDW</t>
+  </si>
+  <si>
+    <t>Lichten aandoen of uitdoen op basis van Uurrooster</t>
+  </si>
+  <si>
+    <t>Melding + LED + motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lazyadmin.nl/home-network/best-home-automation-ideas/ </t>
+  </si>
+  <si>
+    <t>Automated Inventory Tracking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://powermoves.blog/guides/home-automation-ideas/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +196,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -205,8 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A66BAD3-99C6-4FD5-990C-59257A931263}">
-  <dimension ref="C2:R28"/>
+  <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="8" width="9.140625" customWidth="1"/>
@@ -535,7 +577,7 @@
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
@@ -543,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -557,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
@@ -565,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>24</v>
       </c>
@@ -579,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
@@ -587,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -601,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
@@ -609,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -623,12 +665,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -642,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L12" s="1" t="s">
         <v>21</v>
       </c>
@@ -650,7 +692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -658,7 +700,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -666,7 +711,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -674,15 +722,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -695,19 +751,52 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
       <c r="R26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="R28" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L17" r:id="rId1" xr:uid="{FE793C72-8A35-4F0A-B56A-A85845502858}"/>
+    <hyperlink ref="L18" r:id="rId2" xr:uid="{5FC9022E-F868-4DA8-BE51-109F1F61C6D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Automation/Automations.xlsx
+++ b/Automation/Automations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Iot-Lab\Iot-Lab\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iot_lab\Iot-Lab\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C40EEE-F9EA-4BC9-A839-2957530F5244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7661D60-689D-43E5-B5DF-2BE0858EDE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Productie Hoog</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://powermoves.blog/guides/home-automation-ideas/ </t>
+  </si>
+  <si>
+    <t>Vergelijking maken met humidity buiten om te weten of het wel nuttig is om ramen open te zetten</t>
   </si>
 </sst>
 </file>
@@ -563,21 +566,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A66BAD3-99C6-4FD5-990C-59257A931263}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
@@ -585,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -599,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>24</v>
       </c>
@@ -621,7 +624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
@@ -629,7 +632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -643,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
@@ -651,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -665,12 +668,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -684,7 +687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L12" s="1" t="s">
         <v>21</v>
       </c>
@@ -692,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -700,7 +703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -711,7 +714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -722,12 +725,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="L17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -738,12 +741,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
@@ -751,7 +757,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>37</v>
       </c>
@@ -759,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -770,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>40</v>
       </c>
@@ -781,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>43</v>
       </c>
@@ -808,7 +814,7 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/Automations.xlsx
+++ b/Automation/Automations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iot_lab\Iot-Lab\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7661D60-689D-43E5-B5DF-2BE0858EDE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF54544-2687-4CC3-BBA2-F893A9416DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Productie Hoog</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Vergelijking maken met humidity buiten om te weten of het wel nuttig is om ramen open te zetten</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VgV_ExVeSfE&amp;ab_channel=SmartHomeJunkie</t>
+  </si>
+  <si>
+    <t>automatisch tijden waarop het lokaal bezet is uitlezen ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kan ook op het dashboard gezet worden</t>
   </si>
 </sst>
 </file>
@@ -566,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A66BAD3-99C6-4FD5-990C-59257A931263}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,6 +773,9 @@
       <c r="D22" t="s">
         <v>1</v>
       </c>
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -782,6 +794,12 @@
       </c>
       <c r="D26" t="s">
         <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
       </c>
       <c r="R26" t="s">
         <v>2</v>
@@ -800,9 +818,10 @@
   <hyperlinks>
     <hyperlink ref="L17" r:id="rId1" xr:uid="{FE793C72-8A35-4F0A-B56A-A85845502858}"/>
     <hyperlink ref="L18" r:id="rId2" xr:uid="{5FC9022E-F868-4DA8-BE51-109F1F61C6D6}"/>
+    <hyperlink ref="E22" r:id="rId3" xr:uid="{CCB86141-D076-4975-8151-D35550CCD9F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Automation/Automations.xlsx
+++ b/Automation/Automations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iot_lab\Iot-Lab\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Iot-Lab\Iot-Lab\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7661D60-689D-43E5-B5DF-2BE0858EDE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D632D76-AB98-40C4-8C58-D3CFB613E651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Productie Hoog</t>
   </si>
@@ -161,15 +161,6 @@
     <t>DVDW</t>
   </si>
   <si>
-    <t>Lichten aandoen of uitdoen op basis van Uurrooster</t>
-  </si>
-  <si>
-    <t>Melding + LED + motion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lazyadmin.nl/home-network/best-home-automation-ideas/ </t>
-  </si>
-  <si>
     <t>Automated Inventory Tracking </t>
   </si>
   <si>
@@ -177,6 +168,18 @@
   </si>
   <si>
     <t>Vergelijking maken met humidity buiten om te weten of het wel nuttig is om ramen open te zetten</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/cyberjunky/home-assistant-arpscan_tracker </t>
+  </si>
+  <si>
+    <t>Brent/Robin/Maxim</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,7 +220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,11 +253,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,23 +577,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A66BAD3-99C6-4FD5-990C-59257A931263}">
-  <dimension ref="B2:R28"/>
+  <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
@@ -588,12 +601,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>5</v>
@@ -602,7 +618,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
       <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
@@ -610,13 +629,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="6"/>
       <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
@@ -624,7 +644,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
@@ -632,13 +655,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="6"/>
       <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
@@ -646,7 +670,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
@@ -654,13 +681,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="6"/>
       <c r="L9" s="1" t="s">
         <v>17</v>
       </c>
@@ -668,18 +696,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="E11" s="6"/>
       <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
@@ -687,7 +719,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="L12" s="1" t="s">
         <v>21</v>
       </c>
@@ -695,111 +730,123 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="E25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="R28" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:E15"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L17" r:id="rId1" xr:uid="{FE793C72-8A35-4F0A-B56A-A85845502858}"/>
-    <hyperlink ref="L18" r:id="rId2" xr:uid="{5FC9022E-F868-4DA8-BE51-109F1F61C6D6}"/>
+    <hyperlink ref="L17" r:id="rId1" xr:uid="{5FC9022E-F868-4DA8-BE51-109F1F61C6D6}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{C1D94F08-4CCA-40E3-BF7D-FEBB5E18C01C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -814,7 +861,7 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/Automations.xlsx
+++ b/Automation/Automations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Iot-Lab\Iot-Lab\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\School_files\ProjectWeek 3.0\repo's\Iot-Lab\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D632D76-AB98-40C4-8C58-D3CFB613E651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15646666-D943-4A21-84D3-FF180C9CB6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC728893-7F4C-48FD-900F-C952A33424A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Productie Hoog</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Brent/Robin/Maxim</t>
+  </si>
+  <si>
+    <t>NFC -Tag zorgt ervoor dat er een alarm afgaat als die persoon niet binnen mag</t>
+  </si>
+  <si>
+    <t>NFC Tag</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -244,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -255,13 +267,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,7 +593,7 @@
   <dimension ref="B2:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,13 +615,13 @@
       </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -619,9 +632,9 @@
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
       <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
@@ -630,13 +643,13 @@
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="8"/>
       <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
@@ -645,9 +658,9 @@
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
       <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
@@ -656,13 +669,13 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="8"/>
       <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
@@ -671,9 +684,9 @@
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
       <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
@@ -682,13 +695,13 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="8"/>
       <c r="L9" s="1" t="s">
         <v>17</v>
       </c>
@@ -697,21 +710,21 @@
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
       <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="8"/>
       <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
@@ -720,9 +733,9 @@
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
       <c r="L12" s="1" t="s">
         <v>21</v>
       </c>
@@ -731,27 +744,35 @@
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
